--- a/src/5t/assets/LEG.xlsx
+++ b/src/5t/assets/LEG.xlsx
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
-    <t>二级BOM 前支腿 2T，4.5˂S≤11米，4.5˂H0≤6m（图号：Z60331）</t>
-  </si>
-  <si>
-    <t>7021-00002</t>
+    <t xml:space="preserve">二级BOM 前支腿 5T，5˂S≤11米，4.4˂H0≤6m（图号：Z60531） </t>
+  </si>
+  <si>
+    <t>7022-00002</t>
   </si>
   <si>
     <t>前支腿</t>
   </si>
   <si>
-    <t>7021-00100</t>
+    <t>7022-00100</t>
   </si>
   <si>
     <t>下法兰</t>
@@ -46,7 +46,7 @@
     <t>00</t>
   </si>
   <si>
-    <t>7021-00101</t>
+    <t>7022-00101</t>
   </si>
   <si>
     <t>左腹板</t>
@@ -61,7 +61,7 @@
     <t>Q235B</t>
   </si>
   <si>
-    <t>7021-00102</t>
+    <t>7022-00102</t>
   </si>
   <si>
     <t>右腹板</t>
@@ -70,16 +70,16 @@
     <t>板 5×208×L2</t>
   </si>
   <si>
-    <t>7021-00103</t>
+    <t>7022-00103</t>
   </si>
   <si>
     <t>盖板</t>
   </si>
   <si>
-    <t>板 5×(上480，下270）×F</t>
-  </si>
-  <si>
-    <t>7021-00104</t>
+    <t>板 5×(上570，下270）×F</t>
+  </si>
+  <si>
+    <t>7022-00104</t>
   </si>
   <si>
     <t>加强筋</t>
@@ -88,7 +88,7 @@
     <t>板 5×50×E</t>
   </si>
   <si>
-    <t>7021-00105</t>
+    <t>7022-00105</t>
   </si>
   <si>
     <t>隔板（放样）</t>
@@ -97,16 +97,16 @@
     <t>板 5×210×L3(总长)</t>
   </si>
   <si>
-    <t>7021-00106</t>
+    <t>7022-00106</t>
   </si>
   <si>
     <t>上法兰</t>
   </si>
   <si>
-    <t>板 12×290×540</t>
-  </si>
-  <si>
-    <t>7021-00107</t>
+    <t>板 12×290×630</t>
+  </si>
+  <si>
+    <t>7022-00107</t>
   </si>
   <si>
     <t>三角筋</t>
@@ -115,7 +115,7 @@
     <t>板 5×50×100</t>
   </si>
   <si>
-    <t>7021-00108</t>
+    <t>7022-00108</t>
   </si>
   <si>
     <t>板 5×62×100</t>
@@ -126,10 +126,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -170,10 +170,54 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,41 +229,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,16 +238,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,6 +269,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -275,22 +291,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -331,30 +331,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -373,7 +415,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,13 +445,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,109 +481,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,6 +549,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -564,7 +579,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,31 +603,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,6 +622,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -639,10 +639,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,133 +651,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1134,7 +1134,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:U1"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1255,11 +1255,11 @@
         <v>14</v>
       </c>
       <c r="L3" s="9">
-        <v>34.2</v>
+        <v>33.6</v>
       </c>
       <c r="M3" s="9">
-        <f t="shared" si="0"/>
-        <v>34.2</v>
+        <f>I3*L3</f>
+        <v>33.6</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6" t="s">
@@ -1307,11 +1307,11 @@
         <v>14</v>
       </c>
       <c r="L4" s="9">
-        <v>34.2</v>
+        <v>33.7</v>
       </c>
       <c r="M4" s="9">
         <f t="shared" si="0"/>
-        <v>34.2</v>
+        <v>33.7</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6" t="s">
@@ -1359,11 +1359,11 @@
         <v>14</v>
       </c>
       <c r="L5" s="9">
-        <v>53.15</v>
+        <v>67</v>
       </c>
       <c r="M5" s="9">
         <f t="shared" si="0"/>
-        <v>106.3</v>
+        <v>134</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6" t="s">
@@ -1411,11 +1411,11 @@
         <v>14</v>
       </c>
       <c r="L6" s="9">
-        <v>17.9</v>
+        <v>17.4</v>
       </c>
       <c r="M6" s="9">
         <f t="shared" si="0"/>
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6" t="s">
@@ -1511,11 +1511,11 @@
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="9">
-        <v>11</v>
+        <v>14.6</v>
       </c>
       <c r="M8" s="9">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>14.6</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>7</v>
@@ -1554,18 +1554,18 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="9">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="M9" s="9">
         <f t="shared" si="0"/>
-        <v>0.64</v>
+        <v>0.75</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>7</v>

--- a/src/5t/assets/LEG.xlsx
+++ b/src/5t/assets/LEG.xlsx
@@ -19,13 +19,13 @@
     <t xml:space="preserve">二级BOM 前支腿 5T，5˂S≤11米，4.4˂H0≤6m（图号：Z60531） </t>
   </si>
   <si>
-    <t>7022-00002</t>
+    <t>7020-00855</t>
   </si>
   <si>
     <t>前支腿</t>
   </si>
   <si>
-    <t>7022-00100</t>
+    <t>7020-00100</t>
   </si>
   <si>
     <t>下法兰</t>
@@ -46,7 +46,7 @@
     <t>00</t>
   </si>
   <si>
-    <t>7022-00101</t>
+    <t>7020-00902</t>
   </si>
   <si>
     <t>左腹板</t>
@@ -61,7 +61,7 @@
     <t>Q235B</t>
   </si>
   <si>
-    <t>7022-00102</t>
+    <t>7020-00903</t>
   </si>
   <si>
     <t>右腹板</t>
@@ -70,7 +70,7 @@
     <t>板 5×208×L2</t>
   </si>
   <si>
-    <t>7022-00103</t>
+    <t>7020-00904</t>
   </si>
   <si>
     <t>盖板</t>
@@ -79,7 +79,7 @@
     <t>板 5×(上570，下270）×F</t>
   </si>
   <si>
-    <t>7022-00104</t>
+    <t>7020-00905</t>
   </si>
   <si>
     <t>加强筋</t>
@@ -88,7 +88,7 @@
     <t>板 5×50×E</t>
   </si>
   <si>
-    <t>7022-00105</t>
+    <t>7020-00906</t>
   </si>
   <si>
     <t>隔板（放样）</t>
@@ -97,7 +97,7 @@
     <t>板 5×210×L3(总长)</t>
   </si>
   <si>
-    <t>7022-00106</t>
+    <t>7020-00907</t>
   </si>
   <si>
     <t>上法兰</t>
@@ -106,7 +106,7 @@
     <t>板 12×290×630</t>
   </si>
   <si>
-    <t>7022-00107</t>
+    <t>7020-00107</t>
   </si>
   <si>
     <t>三角筋</t>
@@ -115,7 +115,7 @@
     <t>板 5×50×100</t>
   </si>
   <si>
-    <t>7022-00108</t>
+    <t>7020-00108</t>
   </si>
   <si>
     <t>板 5×62×100</t>
@@ -127,8 +127,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -161,6 +161,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -170,46 +193,64 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,55 +262,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,21 +297,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -325,187 +325,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,17 +534,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,46 +603,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,10 +639,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,133 +651,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1134,7 +1134,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1258,7 +1258,7 @@
         <v>33.6</v>
       </c>
       <c r="M3" s="9">
-        <f>I3*L3</f>
+        <f t="shared" si="0"/>
         <v>33.6</v>
       </c>
       <c r="N3" s="6"/>
